--- a/biology/Histoire de la zoologie et de la botanique/Jakob_Hübner/Jakob_Hübner.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jakob_Hübner/Jakob_Hübner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jakob_H%C3%BCbner</t>
+          <t>Jakob_Hübner</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jakob Hübner (ou Jacob Huebner) est un entomologiste bavarois, né le 20 juin 1761 à Augsbourg et mort le 13 septembre 1826 dans cette même ville.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jakob_H%C3%BCbner</t>
+          <t>Jakob_Hübner</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie le dessin de 1778 à 1780 à la Annenschule (école Sainte-Anne), puis l'eau-forte et la xylographie.
 Il étudie particulièrement les papillons et commence à faire paraître ses premiers articles en 1785. Il fait des séjours en Ukraine et à Vienne à partir de 1789, où il fait la connaissance d'Ignaz Schiffermüller (1727-1806) avec lequel il garde des liens d'amitié sa vie durant. Hübner gagne sa vie en étant dessinateur pour une manufacture de textile.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jakob_H%C3%BCbner</t>
+          <t>Jakob_Hübner</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sammlung europäischer Schmetterlinge (Collection sur les papillons européens) (1796-1805).
 Avec Carl Geyer et Gottlieb August Wilhelm Herrich-Schäffer (1799-1874), Sammlung exotischer Schmetterlinge (Collection sur les papillons exotiques), deux volumes, (1806-1834). Augsburg.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jakob_H%C3%BCbner</t>
+          <t>Jakob_Hübner</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l'inventeur de nombreux genres (sous-genres) et espèces
 Genres
